--- a/summer_2019_edited_csv/Copy of Allin_1928_table29.xlsx
+++ b/summer_2019_edited_csv/Copy of Allin_1928_table29.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacif\Desktop\summer_2019_edited_csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacif\Desktop\Summer2019\id test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CC8C236-A9EE-4B56-83A0-563ED32AE9D9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47463A5E-E604-437B-9B62-8292EA6A47CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8976" xr2:uid="{7D7A91CD-83DD-46BC-B7CF-62BE146BC5EA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7D7A91CD-83DD-46BC-B7CF-62BE146BC5EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,9 +111,6 @@
     <t>Notropis_hudsonius_na_na_na_1_1928_Jul_6_1928_Jul_6_Lake_percOrganism_percent_Allin_1928_BulletinOftheBuffaloSocietyOfNaturalSciences_Lake Erie_NA_NA_once_Allin, A. E. (1929). Seining records and food of the intermediate stages of Lake Erie fishes. A biological survey of the Erie-Niagara system. Suppl. 18th Ann. Rept.(1928), New York Conserv. Dept, 95-99._tbl29</t>
   </si>
   <si>
-    <t>Luxiluscornutus_na_na_na_1_1928_Jul_9_1928_Jul_9_Lake_percOrganism_percent_Allin_1928_BulletinOftheBuffaloSocietyOfNaturalSciences_Lake Erie_NA_NA_once_Allin, A. E. (1929). Seining records and food of the intermediate stages of Lake Erie fishes. A biological survey of the Erie-Niagara system. Suppl. 18th Ann. Rept.(1928), New York Conserv. Dept, 95-99._tbl29</t>
-  </si>
-  <si>
     <t>Notropis_atherinoides_na_na_na_1_1928_Jul_6_1928_Jul_6_Lake_percOrganism_percent_Allin_1928_BulletinOftheBuffaloSocietyOfNaturalSciences_Lake Erie_NA_NA_once_Allin, A. E. (1929). Seining records and food of the intermediate stages of Lake Erie fishes. A biological survey of the Erie-Niagara system. Suppl. 18th Ann. Rept.(1928), New York Conserv. Dept, 95-99._tbl29</t>
   </si>
   <si>
@@ -139,6 +136,9 @@
   </si>
   <si>
     <t>B(?)_nigrum_na_na_na_1_1928_Jul_11_1928_Jul_11_Lake_percOrganism_percent_Allin_1928_BulletinOftheBuffaloSocietyOfNaturalSciences_Lake Erie_NA_NA_once_Allin, A. E. (1929). Seining records and food of the intermediate stages of Lake Erie fishes. A biological survey of the Erie-Niagara system. Suppl. 18th Ann. Rept.(1928), New York Conserv. Dept, 95-99._tbl29</t>
+  </si>
+  <si>
+    <t>Luxiluscornutus_na_na_na_na_1_1928_Jul_9_1928_Jul_9_Lake_percOrganism_percent_Allin_1928_BulletinOftheBuffaloSocietyOfNaturalSciences_Lake Erie_NA_NA_once_Allin, A. E. (1929). Seining records and food of the intermediate stages of Lake Erie fishes. A biological survey of the Erie-Niagara system. Suppl. 18th Ann. Rept.(1928), New York Conserv. Dept, 95-99._tbl29</t>
   </si>
 </sst>
 </file>
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B084FF99-BF67-4858-89F2-F0202B5A25DE}">
   <dimension ref="A1:DG34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CQ1" workbookViewId="0">
-      <selection activeCell="DG1" sqref="DG1"/>
+    <sheetView tabSelected="1" topLeftCell="CN1" workbookViewId="0">
+      <selection activeCell="DJ1" sqref="DJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -621,256 +621,256 @@
         <v>25</v>
       </c>
       <c r="AB1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AJ1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AM1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AU1" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="AV1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AW1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AX1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BM1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BN1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BO1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BP1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BQ1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BR1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BS1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BT1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BU1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BV1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BW1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BX1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BY1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BZ1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="CA1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="CB1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="CC1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="CD1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="CE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="CF1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="CG1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="CH1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="CI1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="CJ1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="CK1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="CL1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="BJ1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="BK1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="BL1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="BM1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="BN1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="BO1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="BP1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="BQ1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="BR1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="BS1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="BT1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="BU1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="BV1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="BW1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="BX1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="BY1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="BZ1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="CA1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="CB1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="CC1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="CD1" s="2" t="s">
+      <c r="CM1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="CE1" s="2" t="s">
+      <c r="CN1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CO1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="CG1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="CH1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="CI1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="CJ1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="CK1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="CL1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="CM1" s="2" t="s">
+      <c r="CP1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="CN1" s="2" t="s">
+      <c r="CQ1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="CO1" s="2" t="s">
+      <c r="CR1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="CP1" s="2" t="s">
+      <c r="CS1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CT1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="CQ1" s="2" t="s">
+      <c r="CU1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="CR1" s="2" t="s">
+      <c r="CV1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="CS1" s="2" t="s">
+      <c r="CW1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="CT1" s="2" t="s">
+      <c r="CX1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CY1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="CU1" s="2" t="s">
+      <c r="CZ1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="CV1" s="2" t="s">
+      <c r="DA1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="CW1" s="2" t="s">
+      <c r="DB1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="CX1" s="2" t="s">
+      <c r="DC1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="CY1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="CZ1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="DA1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="DB1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="DC1" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="DD1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="DE1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="DF1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="DG1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:111" x14ac:dyDescent="0.3">
